--- a/qft blog list.xlsx
+++ b/qft blog list.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Fernando Garcia\Documents\fernando-garcia-cortez.github.io\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{4FD2BE7C-F51A-4C39-AD1E-997D88E20FC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5899344D-B249-4810-BB19-62EC98F72362}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-27990" yWindow="-4005" windowWidth="28110" windowHeight="16440" xr2:uid="{7E503987-4B67-48A1-9926-055CE0A31C1B}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
   <si>
     <t>Chapter</t>
   </si>
@@ -57,18 +57,6 @@
   </si>
   <si>
     <t>Problem 14.2</t>
-  </si>
-  <si>
-    <t>A tutorial on natural units: how to get human numbers out of your theories.</t>
-  </si>
-  <si>
-    <t>Brute forcing feynman diagrams: Combinations and drawings</t>
-  </si>
-  <si>
-    <t>https://www.physicsforums.com/threads/what-are-the-key-concepts-in-srednickis-explanation-of-feynman-diagrams-in-qft.285701/</t>
-  </si>
-  <si>
-    <t>Complex fields</t>
   </si>
 </sst>
 </file>
@@ -440,10 +428,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{734F3F2B-A04C-4998-9B01-5981B26A9064}">
-  <dimension ref="B3:E19"/>
+  <dimension ref="B3:D19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="175" zoomScaleNormal="175" workbookViewId="0">
-      <selection activeCell="D12" sqref="D12"/>
+      <selection activeCell="D15" sqref="D15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -452,7 +440,7 @@
     <col min="4" max="4" width="51" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B3" t="s">
         <v>0</v>
       </c>
@@ -461,30 +449,6 @@
       </c>
       <c r="D3" t="s">
         <v>1</v>
-      </c>
-    </row>
-    <row r="14" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="D14" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="15" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B15">
-        <v>9</v>
-      </c>
-      <c r="D15" t="s">
-        <v>8</v>
-      </c>
-      <c r="E15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="17" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B17">
-        <v>12</v>
-      </c>
-      <c r="D17" t="s">
-        <v>7</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.3">
